--- a/database - circanual/SINE/Sire -SINE- R-score and p-value -all species.xlsx
+++ b/database - circanual/SINE/Sire -SINE- R-score and p-value -all species.xlsx
@@ -460,10 +460,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5518603206760528</v>
+        <v>0.4977485676719177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1054</v>
+        <v>0.1588</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1902119768295422</v>
+        <v>0.1902119768359797</v>
       </c>
       <c r="C3" t="n">
         <v>0.658</v>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5873734719475949</v>
+        <v>0.2621626469987974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0712</v>
+        <v>0.519</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -508,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2798315078883876</v>
+        <v>0.4243622796433187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5064</v>
+        <v>0.2182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5586303095574617</v>
+        <v>0.5586303095575808</v>
       </c>
       <c r="C6" t="n">
         <v>0.1014</v>
@@ -540,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4811346075041819</v>
+        <v>0.2318023669943087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1766</v>
+        <v>0.6594</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3603267072975547</v>
+        <v>0.2756594731357708</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3608</v>
+        <v>0.511</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06451155069687428</v>
+        <v>0.1000506308022066</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9308</v>
+        <v>0.8614000000000001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2448250570831399</v>
+        <v>0.6171140799451521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6216</v>
+        <v>0.0568</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -604,10 +604,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6049286849543396</v>
+        <v>0.301825036061485</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0794</v>
+        <v>0.4386</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -620,10 +620,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1410367837583695</v>
+        <v>0.4496704498219593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7774</v>
+        <v>0.2064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -636,10 +636,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2038011122199863</v>
+        <v>0.03085160666481244</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6402</v>
+        <v>0.9796</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.540275264349288</v>
+        <v>0.5402752643488965</v>
       </c>
       <c r="C14" t="n">
         <v>0.1148</v>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2176218929432063</v>
+        <v>0.2176233083288141</v>
       </c>
       <c r="C15" t="n">
         <v>0.6138</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3909965250114538</v>
+        <v>0.3909965250112013</v>
       </c>
       <c r="C16" t="n">
         <v>0.2802</v>
@@ -700,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3535437327780838</v>
+        <v>0.5100229760489016</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3398</v>
+        <v>0.1178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5130255558369473</v>
+        <v>0.5130255558370088</v>
       </c>
       <c r="C18" t="n">
         <v>0.1286</v>
@@ -732,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5111850629330376</v>
+        <v>0.5111850629331259</v>
       </c>
       <c r="C19" t="n">
         <v>0.159</v>
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4799321291740394</v>
+        <v>0.4799321291738179</v>
       </c>
       <c r="C20" t="n">
         <v>0.1768</v>
@@ -764,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3136833589915584</v>
+        <v>0.3603396881795626</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4046</v>
+        <v>0.208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -780,10 +780,10 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3236797219031461</v>
+        <v>0.3347572212647625</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4228</v>
+        <v>0.3912</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>0.356609927379279</v>
+        <v>0.3566099273808231</v>
       </c>
       <c r="C23" t="n">
         <v>0.3562</v>
@@ -812,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5645990043086453</v>
+        <v>0.5645990043096881</v>
       </c>
       <c r="C24" t="n">
         <v>0.0892</v>
@@ -828,10 +828,10 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1364871253960635</v>
+        <v>0.451756481737106</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7876</v>
+        <v>0.2112</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5358973207409278</v>
+        <v>0.535897320741018</v>
       </c>
       <c r="C26" t="n">
         <v>0.1338</v>
@@ -860,10 +860,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8110939071152773</v>
+        <v>0.6903340068431</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0052</v>
+        <v>0.0134</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5515069515914434</v>
+        <v>0.5515069515914477</v>
       </c>
       <c r="C28" t="n">
         <v>0.1</v>
@@ -892,10 +892,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3063426381834224</v>
+        <v>0.4810458205794422</v>
       </c>
       <c r="C29" t="n">
-        <v>0.422</v>
+        <v>0.172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2194397507917039</v>
+        <v>0.219439804907851</v>
       </c>
       <c r="C30" t="n">
         <v>0.6234</v>
@@ -924,10 +924,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5287721124657105</v>
+        <v>0.5636304963550235</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1296</v>
+        <v>0.103</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -940,10 +940,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4960789345432349</v>
+        <v>0.2407257596673022</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1262</v>
+        <v>0.5682</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5645835263320731</v>
+        <v>0.5902371938814627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1002</v>
+        <v>0.0834</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6836022414037941</v>
+        <v>0.7516589951775524</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04</v>
+        <v>0.0162</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5577120613471501</v>
+        <v>0.5577120613473701</v>
       </c>
       <c r="C35" t="n">
         <v>0.1154</v>
@@ -1004,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2497929915906914</v>
+        <v>0.2497930150904513</v>
       </c>
       <c r="C36" t="n">
         <v>0.5488</v>
@@ -1020,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5176707395167801</v>
+        <v>0.5176707395169209</v>
       </c>
       <c r="C37" t="n">
         <v>0.1372</v>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9513213883529935</v>
+        <v>0.9543982394516812</v>
       </c>
       <c r="C38" t="n">
         <v>0.0002</v>
@@ -1052,10 +1052,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8539868326110128</v>
+        <v>0.8950023333352942</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0038</v>
+        <v>0.001</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1068,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8609018280700197</v>
+        <v>0.7210546106614816</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0042</v>
+        <v>0.0346</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>0.570530711879581</v>
+        <v>0.6240184139611282</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0982</v>
+        <v>0.0638</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7523981775410526</v>
+        <v>0.7523981775406542</v>
       </c>
       <c r="C42" t="n">
         <v>0.008200000000000001</v>
@@ -1116,10 +1116,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6190312785523671</v>
+        <v>0.6012348047176919</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0458</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1132,10 +1132,10 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3469893869542013</v>
+        <v>0.84368978974959</v>
       </c>
       <c r="C44" t="n">
-        <v>0.367</v>
+        <v>0.0012</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1148,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="n">
-        <v>0.916205875032131</v>
+        <v>0.8190325536465543</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001</v>
+        <v>0.0068</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1164,10 +1164,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8813094507995906</v>
+        <v>0.7997874165523705</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0008</v>
+        <v>0.0044</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4260178461128266</v>
+        <v>0.7821522893734124</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2438</v>
+        <v>0.0128</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1196,10 +1196,10 @@
         <v>11</v>
       </c>
       <c r="B48" t="n">
-        <v>0.701618557466049</v>
+        <v>0.9260506038410961</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0222</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1212,10 +1212,10 @@
         <v>12</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8173971007009758</v>
+        <v>0.7631992517731404</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0064</v>
+        <v>0.0078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1228,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7203350895823989</v>
+        <v>0.7103614329242769</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0202</v>
+        <v>0.0164</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1244,10 +1244,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5992392619697884</v>
+        <v>0.5765019111207418</v>
       </c>
       <c r="C51" t="n">
-        <v>0.081</v>
+        <v>0.0958</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1260,10 +1260,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8739948612617084</v>
+        <v>0.7351232591958572</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0004</v>
+        <v>0.0178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6550718349315862</v>
+        <v>0.6550718349303453</v>
       </c>
       <c r="C53" t="n">
         <v>0.0328</v>
@@ -1292,10 +1292,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7481599086763375</v>
+        <v>0.7766330582062025</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0136</v>
+        <v>0.0092</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1893734696496018</v>
+        <v>0.1893734696483115</v>
       </c>
       <c r="C55" t="n">
         <v>0.6988</v>
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7525897100979895</v>
+        <v>0.7525897100981827</v>
       </c>
       <c r="C56" t="n">
         <v>0.013</v>
@@ -1340,10 +1340,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5506481095235677</v>
+        <v>0.6473955915566255</v>
       </c>
       <c r="C57" t="n">
-        <v>0.112</v>
+        <v>0.0374</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5760175465955386</v>
+        <v>0.5760164327111594</v>
       </c>
       <c r="C58" t="n">
         <v>0.0964</v>
@@ -1372,10 +1372,10 @@
         <v>10</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8065035212795066</v>
+        <v>0.7404074168654921</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0064</v>
+        <v>0.0118</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8504626755190335</v>
+        <v>0.8504626755191261</v>
       </c>
       <c r="C60" t="n">
         <v>0.002</v>
@@ -1404,10 +1404,10 @@
         <v>12</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7504617491334168</v>
+        <v>0.7504617491331969</v>
       </c>
       <c r="C61" t="n">
-        <v>0.014</v>
+        <v>0.0142</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7429341371283293</v>
+        <v>0.6955533393386324</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0226</v>
+        <v>0.0264</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1436,10 +1436,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>0.528697723226368</v>
+        <v>0.5160938337642588</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1322</v>
+        <v>0.1484</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1452,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2481859561971582</v>
+        <v>0.3688296671991429</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5578</v>
+        <v>0.3168</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1468,10 +1468,10 @@
         <v>4</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8512414902720823</v>
+        <v>0.5836134760860769</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0018</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         <v>5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5688435960515987</v>
+        <v>0.5125055964509323</v>
       </c>
       <c r="C66" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.1338</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1500,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4217971921306037</v>
+        <v>0.2899097484535544</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2322</v>
+        <v>0.4558</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1516,10 +1516,10 @@
         <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6242885803215305</v>
+        <v>0.781691668200961</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0568</v>
+        <v>0.0042</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7802672812719166</v>
+        <v>0.5601476497168042</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0102</v>
+        <v>0.111</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
         <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6457807491076452</v>
+        <v>0.7373683385635328</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0578</v>
+        <v>0.03</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7789342835635901</v>
+        <v>0.714932163346952</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0118</v>
+        <v>0.0218</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1580,10 +1580,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>0.701905044306526</v>
+        <v>0.58408467623856</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0248</v>
+        <v>0.0896</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6919922285169862</v>
+        <v>0.7021361124075812</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0264</v>
+        <v>0.016</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
